--- a/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeGym\006-case-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CodeGym\Module 3\c0422g1_tiliusdngtrongqutrnhhcmodule3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24297088-B009-4037-833E-1826B621BE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="hop_dong" sheetId="15" r:id="rId13"/>
     <sheet name="hop_dong_chi_tiet" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,12 +46,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pato</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{2DC7E6B5-8639-4AE9-8FA0-A5A1C2466739}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,26 +1530,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D0440E-F166-4EC3-B103-03764B4A367C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>template</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1558,27 +1557,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
@@ -1589,26 +1588,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97F537-E115-422B-892C-F002120CFAF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>116</v>
       </c>
@@ -1617,7 +1616,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1626,7 +1625,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1634,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1651,36 +1650,36 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DD17D9-7DE0-437F-9102-7C533FE47E2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="1"/>
+    <col min="13" max="13" width="16.109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>121</v>
       </c>
@@ -1719,7 +1718,7 @@
       </c>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1758,7 +1757,7 @@
       </c>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1796,7 @@
       </c>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1835,7 @@
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1875,7 +1874,7 @@
       </c>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +1913,7 @@
       </c>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1961,29 +1960,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29731F91-B5D5-4B04-B66A-90362D854B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="3" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu_di_kem</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>157</v>
       </c>
@@ -2001,7 +1999,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2017,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +2035,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2053,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2073,7 +2071,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2089,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2116,31 +2114,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7603A07-B98E-415E-8E90-876E4CF1B4FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>178</v>
       </c>
@@ -2164,7 +2162,7 @@
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2186,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2210,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2236,7 +2234,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2258,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2282,7 @@
       </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2308,7 +2306,7 @@
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2332,7 +2330,7 @@
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2356,7 +2354,7 @@
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -2380,7 +2378,7 @@
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2404,7 +2402,7 @@
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>277</v>
       </c>
@@ -2428,7 +2426,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>306</v>
       </c>
@@ -2459,28 +2457,28 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8183C1-0469-4B46-B3CA-64B1C5367381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong_chi_tiet</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>191</v>
       </c>
@@ -2495,7 +2493,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2508,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2525,7 +2523,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2540,7 +2538,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2553,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2568,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2585,7 +2583,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2598,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2622,34 +2620,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D9D778-2B6A-4DC8-B510-2EADDD8D34F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="3" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2671,7 +2670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>156</v>
       </c>
@@ -2682,12 +2681,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>236</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2731,12 +2730,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>236</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2780,12 +2779,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>236</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>136</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3151,12 +3150,12 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="43" spans="2:9" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B43" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>121</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
@@ -3241,12 +3240,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B52" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>121</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
@@ -3286,27 +3285,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B58" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="2:7" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>329</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>52</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>156</v>
       </c>
@@ -3370,12 +3369,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:6" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B76" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>262</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>52</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>53</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>156</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>277</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>306</v>
       </c>
@@ -3596,12 +3595,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:6" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B93" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>274</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3625,7 +3624,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
@@ -3633,12 +3632,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B101" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>262</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>156</v>
       </c>
@@ -3716,12 +3715,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
         <v>274</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3754,12 +3753,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="2:7" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>262</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
@@ -3843,12 +3842,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:7" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B125" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>297</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
         <v>136</v>
       </c>
@@ -3908,17 +3907,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="2:7" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B133" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
         <v>297</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
         <v>5</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>53</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
         <v>156</v>
       </c>
@@ -3974,17 +3973,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B146" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>83</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
@@ -4006,17 +4005,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B155" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>236</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>5</v>
       </c>
@@ -4048,17 +4047,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="2:3" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:3" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B165" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>274</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
         <v>7</v>
       </c>
@@ -4074,17 +4073,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="2:3" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:3" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B173" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>316</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
         <v>2</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
         <v>4</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
         <v>5</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>6</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
         <v>7</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
         <v>52</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
         <v>53</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
         <v>156</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
         <v>136</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="2" t="s">
         <v>6</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
         <v>52</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="2" t="s">
         <v>53</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
         <v>156</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
         <v>136</v>
       </c>
@@ -4510,26 +4509,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>vi_tri</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -4538,7 +4539,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4547,7 +4548,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4564,26 +4565,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CED6DB-3877-463C-B9AA-357D3D36B141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="B5:C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>trinh_do</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -4592,7 +4595,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4601,7 +4604,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4610,7 +4613,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4619,7 +4622,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4636,26 +4639,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AA79DF-2634-4480-931C-0C6683BDF067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>bo_phan</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -4664,7 +4669,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4673,7 +4678,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4682,7 +4687,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +4696,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4708,35 +4713,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6882295-E1B0-4E85-B762-8E5DE174EEF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>nhan_vien</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4772,7 +4779,7 @@
       </c>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4808,7 +4815,7 @@
       </c>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4844,7 +4851,7 @@
       </c>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4880,7 +4887,7 @@
       </c>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4916,7 +4923,7 @@
       </c>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4952,7 +4959,7 @@
       </c>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4988,7 +4995,7 @@
       </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -5024,7 +5031,7 @@
       </c>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5060,7 +5067,7 @@
       </c>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5096,7 +5103,7 @@
       </c>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5135,16 +5142,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{A45B9815-E586-4A5F-A9DA-9A60E931302E}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{C84B6E56-286A-4955-9A9B-4D80F117A62D}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{57C2D030-A9F1-4CB4-9220-08DAFA6D2458}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{4943432F-EFED-4D3B-A6F5-CC956CC07782}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{92A461EB-7C70-4C1D-B99F-38478155A26C}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{7E8B7F0A-A479-4A04-AD02-6DF677A15FB8}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{BE9E7572-1C74-42E7-A33D-D8CCC19ED267}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{F5CB9A60-9F6F-4EDF-BBF8-31F53B5F94D7}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{DD172B67-10AC-4683-86F3-872C1B3589EF}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{AC5C76AE-3298-4D34-B013-078400A2C3CF}"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId5"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -5152,26 +5159,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DA5519-D2F2-4FBC-80DB-598D802A0B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_khach</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>81</v>
       </c>
@@ -5180,7 +5187,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5189,7 +5196,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5198,7 +5205,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5207,7 +5214,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5216,7 +5223,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5233,33 +5240,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC742F0C-576E-4C4C-B816-101D6860890D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>khach_hang</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>83</v>
       </c>
@@ -5289,7 +5296,7 @@
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5319,7 +5326,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5356,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5379,7 +5386,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5409,7 +5416,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5439,7 +5446,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5469,7 +5476,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -5499,7 +5506,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5529,7 +5536,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5559,7 +5566,7 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5591,16 +5598,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{07066612-E048-40E9-82F9-8AF333F228B9}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{7192A83E-60A1-4717-B407-08A73391D7D8}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{045B757E-C5C7-420A-9408-F299063DF2F8}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{5943EEA0-8395-4776-B1E1-17FAD751DBBF}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{F679024C-344D-493C-9206-4E8E20793BD2}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{F62AFCA2-E56D-4FFE-8BD5-D1233B03D75D}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{84E928ED-04EE-4E53-B651-E3B000464F00}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{368F6CA3-1F6F-4E95-B550-CF90914EDB52}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{C3B82C2A-134C-4FAF-8461-A02038EB2EC5}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{8D5F29EC-499B-483F-BF75-4242DCD45387}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -5609,27 +5616,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB48BEB-597B-437E-B673-52CE1CDBA3F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>kieu_thue</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>110</v>
       </c>
@@ -5639,7 +5646,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5649,7 +5656,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5659,7 +5666,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5669,7 +5676,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>

--- a/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1591,7 +1591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1653,7 +1655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1963,7 +1967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2117,7 +2123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2460,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4717,7 +4725,7 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:L5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5162,7 +5170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5243,7 +5253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5619,7 +5631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -2468,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2634,7 +2634,7 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -2634,8 +2634,8 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/c0422g1_tiliusdngtrongqutrnhhcmodule3/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="853" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1968,7 +1968,7 @@
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2124,7 +2124,7 @@
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C7" sqref="C7:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2634,8 +2634,8 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5254,7 +5254,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
